--- a/config_ios提审/fish_boss_yutu_random_3.xlsx
+++ b/config_ios提审/fish_boss_yutu_random_3.xlsx
@@ -300,7 +300,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>35,42,46,47,48,49,49,50,50,</t>
+    <t>35,42,46,47,48,49,50,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1006,7 +1006,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1116,10 +1116,10 @@
         <v>69</v>
       </c>
       <c r="C6" s="11">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D6" s="11">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E6" t="s">
         <v>68</v>
